--- a/Stage 1/Gaussian5 Optimization.xlsx
+++ b/Stage 1/Gaussian5 Optimization.xlsx
@@ -542,184 +542,184 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <v>3</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
       </c>
       <c r="H2">
         <f>SUM(A2:E6)</f>
-        <v>140</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
         <v>3</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8.9285714285714281E-3</v>
+        <v>1.3761467889908258E-2</v>
       </c>
       <c r="B9">
-        <v>2.6785714285714284E-2</v>
+        <v>3.2110091743119268E-2</v>
       </c>
       <c r="C9">
-        <v>4.4642857142857144E-2</v>
+        <v>4.1284403669724773E-2</v>
       </c>
       <c r="D9">
-        <v>2.6785714285714284E-2</v>
+        <v>3.2110091743119268E-2</v>
       </c>
       <c r="E9">
-        <v>8.9285714285714281E-3</v>
+        <v>1.3761467889908258E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8.9285714285714281E-3</v>
+        <v>2.2935779816513763E-2</v>
       </c>
       <c r="B10">
-        <v>4.4642857142857144E-2</v>
+        <v>4.5871559633027525E-2</v>
       </c>
       <c r="C10">
-        <v>8.9285714285714288E-2</v>
+        <v>6.8807339449541288E-2</v>
       </c>
       <c r="D10">
-        <v>4.4642857142857144E-2</v>
+        <v>6.8807339449541288E-2</v>
       </c>
       <c r="E10">
-        <v>8.9285714285714281E-3</v>
+        <v>2.2935779816513763E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>8.9285714285714281E-3</v>
+        <v>3.669724770642202E-2</v>
       </c>
       <c r="B11">
-        <v>8.9285714285714288E-2</v>
+        <v>6.8807339449541288E-2</v>
       </c>
       <c r="C11">
-        <v>0.17857142857142858</v>
+        <v>9.1743119266055051E-2</v>
       </c>
       <c r="D11">
-        <v>8.9285714285714288E-2</v>
+        <v>6.8807339449541288E-2</v>
       </c>
       <c r="E11">
-        <v>8.9285714285714281E-3</v>
+        <v>3.669724770642202E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8.9285714285714281E-3</v>
+        <v>2.2935779816513763E-2</v>
       </c>
       <c r="B12">
-        <v>4.4642857142857144E-2</v>
+        <v>4.5871559633027525E-2</v>
       </c>
       <c r="C12">
-        <v>8.9285714285714288E-2</v>
+        <v>6.8807339449541288E-2</v>
       </c>
       <c r="D12">
-        <v>4.4642857142857144E-2</v>
+        <v>4.5871559633027525E-2</v>
       </c>
       <c r="E12">
-        <v>8.9285714285714281E-3</v>
+        <v>2.2935779816513763E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>8.9285714285714281E-3</v>
+        <v>1.3761467889908258E-2</v>
       </c>
       <c r="B13">
-        <v>2.6785714285714284E-2</v>
+        <v>3.2110091743119268E-2</v>
       </c>
       <c r="C13">
-        <v>4.4642857142857144E-2</v>
+        <v>3.669724770642202E-2</v>
       </c>
       <c r="D13">
-        <v>2.6785714285714284E-2</v>
+        <v>3.2110091743119268E-2</v>
       </c>
       <c r="E13">
-        <v>8.9285714285714281E-3</v>
+        <v>1.3761467889908258E-2</v>
       </c>
     </row>
   </sheetData>
